--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Dkk2-Lrp5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Dkk2-Lrp5.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.398441</v>
+        <v>0.1717705</v>
       </c>
       <c r="H2">
-        <v>0.7968820000000001</v>
+        <v>0.343541</v>
       </c>
       <c r="I2">
-        <v>0.0894536390908099</v>
+        <v>0.04063177891664595</v>
       </c>
       <c r="J2">
-        <v>0.06146862341190578</v>
+        <v>0.02745976565347561</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.945525</v>
+        <v>17.4294175</v>
       </c>
       <c r="N2">
-        <v>35.89105</v>
+        <v>34.858835</v>
       </c>
       <c r="O2">
-        <v>0.3147738875783</v>
+        <v>0.4529581854295807</v>
       </c>
       <c r="P2">
-        <v>0.2472168478181395</v>
+        <v>0.3776014560521451</v>
       </c>
       <c r="Q2">
-        <v>7.150232926525001</v>
+        <v>2.99385975868375</v>
       </c>
       <c r="R2">
-        <v>28.6009317061</v>
+        <v>11.975439034735</v>
       </c>
       <c r="S2">
-        <v>0.02815766973464042</v>
+        <v>0.01840449684885985</v>
       </c>
       <c r="T2">
-        <v>0.01519607931961164</v>
+        <v>0.01036884749360308</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.398441</v>
+        <v>0.1717705</v>
       </c>
       <c r="H3">
-        <v>0.7968820000000001</v>
+        <v>0.343541</v>
       </c>
       <c r="I3">
-        <v>0.0894536390908099</v>
+        <v>0.04063177891664595</v>
       </c>
       <c r="J3">
-        <v>0.06146862341190578</v>
+        <v>0.02745976565347561</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>11.744931</v>
       </c>
       <c r="O3">
-        <v>0.06867074270993076</v>
+        <v>0.1017429801035258</v>
       </c>
       <c r="P3">
-        <v>0.0808988541617353</v>
+        <v>0.127224648983019</v>
       </c>
       <c r="Q3">
-        <v>1.559887350857</v>
+        <v>0.6724775567785001</v>
       </c>
       <c r="R3">
-        <v>9.359324105142003</v>
+        <v>4.034865340671</v>
       </c>
       <c r="S3">
-        <v>0.006142847834472011</v>
+        <v>0.004133998273887167</v>
       </c>
       <c r="T3">
-        <v>0.004972741200922393</v>
+        <v>0.003493559046419397</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.398441</v>
+        <v>0.1717705</v>
       </c>
       <c r="H4">
-        <v>0.7968820000000001</v>
+        <v>0.343541</v>
       </c>
       <c r="I4">
-        <v>0.0894536390908099</v>
+        <v>0.04063177891664595</v>
       </c>
       <c r="J4">
-        <v>0.06146862341190578</v>
+        <v>0.02745976565347561</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.595080333333333</v>
+        <v>5.397313</v>
       </c>
       <c r="N4">
-        <v>22.785241</v>
+        <v>16.191939</v>
       </c>
       <c r="O4">
-        <v>0.133221678551774</v>
+        <v>0.1402661392829386</v>
       </c>
       <c r="P4">
-        <v>0.1569442927079769</v>
+        <v>0.1753959862028526</v>
       </c>
       <c r="Q4">
-        <v>3.026191403093667</v>
+        <v>0.9270991526665</v>
       </c>
       <c r="R4">
-        <v>18.157148418562</v>
+        <v>5.562594915999</v>
       </c>
       <c r="S4">
-        <v>0.01191716395224228</v>
+        <v>0.005699262760835828</v>
       </c>
       <c r="T4">
-        <v>0.009647149625114542</v>
+        <v>0.004816332677690574</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.398441</v>
+        <v>0.1717705</v>
       </c>
       <c r="H5">
-        <v>0.7968820000000001</v>
+        <v>0.343541</v>
       </c>
       <c r="I5">
-        <v>0.0894536390908099</v>
+        <v>0.04063177891664595</v>
       </c>
       <c r="J5">
-        <v>0.06146862341190578</v>
+        <v>0.02745976565347561</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.90657</v>
+        <v>5.69137</v>
       </c>
       <c r="N5">
-        <v>15.81314</v>
+        <v>11.38274</v>
       </c>
       <c r="O5">
-        <v>0.1386853701025721</v>
+        <v>0.1479081344978025</v>
       </c>
       <c r="P5">
-        <v>0.1089205978901965</v>
+        <v>0.1233012863987851</v>
       </c>
       <c r="Q5">
-        <v>3.15030165737</v>
+        <v>0.9776094705849999</v>
       </c>
       <c r="R5">
-        <v>12.60120662948</v>
+        <v>3.91043788234</v>
       </c>
       <c r="S5">
-        <v>0.01240591104433088</v>
+        <v>0.006009770620888246</v>
       </c>
       <c r="T5">
-        <v>0.006695199213512105</v>
+        <v>0.00338582442928272</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.398441</v>
+        <v>0.1717705</v>
       </c>
       <c r="H6">
-        <v>0.7968820000000001</v>
+        <v>0.343541</v>
       </c>
       <c r="I6">
-        <v>0.0894536390908099</v>
+        <v>0.04063177891664595</v>
       </c>
       <c r="J6">
-        <v>0.06146862341190578</v>
+        <v>0.02745976565347561</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.81295533333333</v>
+        <v>1.988496</v>
       </c>
       <c r="N6">
-        <v>32.438866</v>
+        <v>5.965488000000001</v>
       </c>
       <c r="O6">
-        <v>0.1896648878471845</v>
+        <v>0.05167731737988258</v>
       </c>
       <c r="P6">
-        <v>0.2234382721964117</v>
+        <v>0.06461997237892773</v>
       </c>
       <c r="Q6">
-        <v>4.308324735968668</v>
+        <v>0.341564952168</v>
       </c>
       <c r="R6">
-        <v>25.849948415812</v>
+        <v>2.049389713008</v>
       </c>
       <c r="S6">
-        <v>0.01696621442568098</v>
+        <v>0.002099741334784735</v>
       </c>
       <c r="T6">
-        <v>0.01373444300944813</v>
+        <v>0.001774449298059423</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.398441</v>
+        <v>0.1717705</v>
       </c>
       <c r="H7">
-        <v>0.7968820000000001</v>
+        <v>0.343541</v>
       </c>
       <c r="I7">
-        <v>0.0894536390908099</v>
+        <v>0.04063177891664595</v>
       </c>
       <c r="J7">
-        <v>0.06146862341190578</v>
+        <v>0.02745976565347561</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.835736333333335</v>
+        <v>4.057513666666667</v>
       </c>
       <c r="N7">
-        <v>26.507209</v>
+        <v>12.172541</v>
       </c>
       <c r="O7">
-        <v>0.1549834332102386</v>
+        <v>0.1054472433062699</v>
       </c>
       <c r="P7">
-        <v>0.1825811352255401</v>
+        <v>0.1318566499842704</v>
       </c>
       <c r="Q7">
-        <v>3.520519620389668</v>
+        <v>0.6969611512801667</v>
       </c>
       <c r="R7">
-        <v>21.12311772233801</v>
+        <v>4.181766907681</v>
       </c>
       <c r="S7">
-        <v>0.01386383209944333</v>
+        <v>0.004284509077390133</v>
       </c>
       <c r="T7">
-        <v>0.01122301104329697</v>
+        <v>0.003620752708420425</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>12.167163</v>
       </c>
       <c r="I8">
-        <v>0.9105463609091901</v>
+        <v>0.9593682210833541</v>
       </c>
       <c r="J8">
-        <v>0.9385313765880943</v>
+        <v>0.9725402343465244</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.945525</v>
+        <v>17.4294175</v>
       </c>
       <c r="N8">
-        <v>35.89105</v>
+        <v>34.858835</v>
       </c>
       <c r="O8">
-        <v>0.3147738875783</v>
+        <v>0.4529581854295807</v>
       </c>
       <c r="P8">
-        <v>0.2472168478181395</v>
+        <v>0.3776014560521451</v>
       </c>
       <c r="Q8">
-        <v>72.782042598525</v>
+        <v>70.6888545725175</v>
       </c>
       <c r="R8">
-        <v>436.69225559115</v>
+        <v>424.133127435105</v>
       </c>
       <c r="S8">
-        <v>0.2866162178436595</v>
+        <v>0.4345536885807209</v>
       </c>
       <c r="T8">
-        <v>0.2320207684985279</v>
+        <v>0.3672326085585421</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>12.167163</v>
       </c>
       <c r="I9">
-        <v>0.9105463609091901</v>
+        <v>0.9593682210833541</v>
       </c>
       <c r="J9">
-        <v>0.9385313765880943</v>
+        <v>0.9725402343465244</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>11.744931</v>
       </c>
       <c r="O9">
-        <v>0.06867074270993076</v>
+        <v>0.1017429801035258</v>
       </c>
       <c r="P9">
-        <v>0.0808988541617353</v>
+        <v>0.127224648983019</v>
       </c>
       <c r="Q9">
         <v>15.878054433417</v>
@@ -1013,10 +1013,10 @@
         <v>142.902489900753</v>
       </c>
       <c r="S9">
-        <v>0.06252789487545875</v>
+        <v>0.09760898182963861</v>
       </c>
       <c r="T9">
-        <v>0.07592611296081291</v>
+        <v>0.1237310899365996</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>12.167163</v>
       </c>
       <c r="I10">
-        <v>0.9105463609091901</v>
+        <v>0.9593682210833541</v>
       </c>
       <c r="J10">
-        <v>0.9385313765880943</v>
+        <v>0.9725402343465244</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.595080333333333</v>
+        <v>5.397313</v>
       </c>
       <c r="N10">
-        <v>22.785241</v>
+        <v>16.191939</v>
       </c>
       <c r="O10">
-        <v>0.133221678551774</v>
+        <v>0.1402661392829386</v>
       </c>
       <c r="P10">
-        <v>0.1569442927079769</v>
+        <v>0.1753959862028526</v>
       </c>
       <c r="Q10">
-        <v>30.803526804587</v>
+        <v>21.889995677673</v>
       </c>
       <c r="R10">
-        <v>277.231741241283</v>
+        <v>197.009961099057</v>
       </c>
       <c r="S10">
-        <v>0.1213045145995317</v>
+        <v>0.1345668765221028</v>
       </c>
       <c r="T10">
-        <v>0.1472971430828623</v>
+        <v>0.170579653525162</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>12.167163</v>
       </c>
       <c r="I11">
-        <v>0.9105463609091901</v>
+        <v>0.9593682210833541</v>
       </c>
       <c r="J11">
-        <v>0.9385313765880943</v>
+        <v>0.9725402343465244</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.90657</v>
+        <v>5.69137</v>
       </c>
       <c r="N11">
-        <v>15.81314</v>
+        <v>11.38274</v>
       </c>
       <c r="O11">
-        <v>0.1386853701025721</v>
+        <v>0.1479081344978025</v>
       </c>
       <c r="P11">
-        <v>0.1089205978901965</v>
+        <v>0.1233012863987851</v>
       </c>
       <c r="Q11">
-        <v>32.06684198697</v>
+        <v>23.08260882777</v>
       </c>
       <c r="R11">
-        <v>192.40105192182</v>
+        <v>138.49565296662</v>
       </c>
       <c r="S11">
-        <v>0.1262794590582412</v>
+        <v>0.1418983638769143</v>
       </c>
       <c r="T11">
-        <v>0.1022253986766844</v>
+        <v>0.1199154619695024</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>12.167163</v>
       </c>
       <c r="I12">
-        <v>0.9105463609091901</v>
+        <v>0.9593682210833541</v>
       </c>
       <c r="J12">
-        <v>0.9385313765880943</v>
+        <v>0.9725402343465244</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.81295533333333</v>
+        <v>1.988496</v>
       </c>
       <c r="N12">
-        <v>32.438866</v>
+        <v>5.965488000000001</v>
       </c>
       <c r="O12">
-        <v>0.1896648878471845</v>
+        <v>0.05167731737988258</v>
       </c>
       <c r="P12">
-        <v>0.2234382721964117</v>
+        <v>0.06461997237892773</v>
       </c>
       <c r="Q12">
-        <v>43.854330017462</v>
+        <v>8.064784985616001</v>
       </c>
       <c r="R12">
-        <v>394.6889701571581</v>
+        <v>72.58306487054401</v>
       </c>
       <c r="S12">
-        <v>0.1726986734215036</v>
+        <v>0.04957757604509785</v>
       </c>
       <c r="T12">
-        <v>0.2097038291869636</v>
+        <v>0.06284552308086831</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>12.167163</v>
       </c>
       <c r="I13">
-        <v>0.9105463609091901</v>
+        <v>0.9593682210833541</v>
       </c>
       <c r="J13">
-        <v>0.9385313765880943</v>
+        <v>0.9725402343465244</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.835736333333335</v>
+        <v>4.057513666666667</v>
       </c>
       <c r="N13">
-        <v>26.507209</v>
+        <v>12.172541</v>
       </c>
       <c r="O13">
-        <v>0.1549834332102386</v>
+        <v>0.1054472433062699</v>
       </c>
       <c r="P13">
-        <v>0.1825811352255401</v>
+        <v>0.1318566499842704</v>
       </c>
       <c r="Q13">
-        <v>35.83528139756301</v>
+        <v>16.456143385687</v>
       </c>
       <c r="R13">
-        <v>322.5175325780671</v>
+        <v>148.105290471183</v>
       </c>
       <c r="S13">
-        <v>0.1411196011107953</v>
+        <v>0.1011627342288798</v>
       </c>
       <c r="T13">
-        <v>0.1713581241822431</v>
+        <v>0.12823589727585</v>
       </c>
     </row>
   </sheetData>
